--- a/LeetCode/LcList.xlsx
+++ b/LeetCode/LcList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T1703001\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T1703001\Desktop\QA\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1754,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E397"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6394,27 +6394,27 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B75:B106"/>
-    <mergeCell ref="B2:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="B55:B74"/>
-    <mergeCell ref="B178:B186"/>
-    <mergeCell ref="B187:B192"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="B117:B125"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B146"/>
-    <mergeCell ref="B327:B337"/>
-    <mergeCell ref="B367:B369"/>
-    <mergeCell ref="B301:B317"/>
-    <mergeCell ref="B318:B326"/>
-    <mergeCell ref="B338:B344"/>
-    <mergeCell ref="B345:B347"/>
+    <mergeCell ref="A327:A344"/>
+    <mergeCell ref="A318:A326"/>
+    <mergeCell ref="A301:A317"/>
+    <mergeCell ref="A287:A300"/>
+    <mergeCell ref="A264:A286"/>
+    <mergeCell ref="A240:A263"/>
+    <mergeCell ref="B378:B380"/>
+    <mergeCell ref="B381:B397"/>
+    <mergeCell ref="A381:A397"/>
+    <mergeCell ref="A378:A380"/>
+    <mergeCell ref="A361:A366"/>
+    <mergeCell ref="B348:B357"/>
+    <mergeCell ref="B358:B360"/>
+    <mergeCell ref="B361:B366"/>
+    <mergeCell ref="B370:B374"/>
+    <mergeCell ref="B375:B377"/>
+    <mergeCell ref="A375:A377"/>
+    <mergeCell ref="A367:A374"/>
+    <mergeCell ref="A358:A360"/>
+    <mergeCell ref="A345:A357"/>
+    <mergeCell ref="B287:B300"/>
     <mergeCell ref="A2:A74"/>
     <mergeCell ref="A75:A133"/>
     <mergeCell ref="B208:B220"/>
@@ -6431,27 +6431,27 @@
     <mergeCell ref="B147:B152"/>
     <mergeCell ref="B153:B173"/>
     <mergeCell ref="B174:B177"/>
-    <mergeCell ref="A240:A263"/>
-    <mergeCell ref="B378:B380"/>
-    <mergeCell ref="B381:B397"/>
-    <mergeCell ref="A381:A397"/>
-    <mergeCell ref="A378:A380"/>
-    <mergeCell ref="A361:A366"/>
-    <mergeCell ref="B348:B357"/>
-    <mergeCell ref="B358:B360"/>
-    <mergeCell ref="B361:B366"/>
-    <mergeCell ref="B370:B374"/>
-    <mergeCell ref="B375:B377"/>
-    <mergeCell ref="A375:A377"/>
-    <mergeCell ref="A367:A374"/>
-    <mergeCell ref="A358:A360"/>
-    <mergeCell ref="A345:A357"/>
-    <mergeCell ref="B287:B300"/>
-    <mergeCell ref="A327:A344"/>
-    <mergeCell ref="A318:A326"/>
-    <mergeCell ref="A301:A317"/>
-    <mergeCell ref="A287:A300"/>
-    <mergeCell ref="A264:A286"/>
+    <mergeCell ref="B327:B337"/>
+    <mergeCell ref="B367:B369"/>
+    <mergeCell ref="B301:B317"/>
+    <mergeCell ref="B318:B326"/>
+    <mergeCell ref="B338:B344"/>
+    <mergeCell ref="B345:B347"/>
+    <mergeCell ref="B178:B186"/>
+    <mergeCell ref="B187:B192"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B146"/>
+    <mergeCell ref="B75:B106"/>
+    <mergeCell ref="B2:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="B55:B74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://leetcode.com/problems/remove-element/"/>
